--- a/Experimentos/Plantilla cuantificacion proteina.xlsx
+++ b/Experimentos/Plantilla cuantificacion proteina.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Curva</t>
   </si>
@@ -32,13 +32,60 @@
   <si>
     <t>[   ] (ug/uL)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Inst0-2 Input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inst12-2 Input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inst24-1 Input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inst0-2 SN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inst12-2 SN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inst24-1 SN </t>
+  </si>
+  <si>
+    <t>V        (para 25ug)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lysis buffer (WB) </t>
+  </si>
+  <si>
+    <t>6X</t>
+  </si>
+  <si>
+    <t>Vf (uL)</t>
+  </si>
+  <si>
+    <t>Input t0h</t>
+  </si>
+  <si>
+    <t>Input t12h</t>
+  </si>
+  <si>
+    <t>Input t24h</t>
+  </si>
+  <si>
+    <t>SN t0h</t>
+  </si>
+  <si>
+    <t>SN t12h</t>
+  </si>
+  <si>
+    <t>SN t24h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
@@ -58,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +130,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -96,21 +155,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,22 +314,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.11549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.27649999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.43099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.70550000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,135 +1526,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J10"/>
+  <dimension ref="A3:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="e">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.108</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.123</v>
+      </c>
+      <c r="C4" s="1">
         <f>AVERAGE(A4:B4)</f>
-        <v>#DIV/0!</v>
+        <v>0.11549999999999999</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="I4" t="e">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="I4">
         <f>AVERAGE(G4:H4)</f>
-        <v>#DIV/0!</v>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="J4" s="10">
+        <f>(8.4311*I4)-1.0194</f>
+        <v>4.5788504000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="e">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" ref="C5:C8" si="0">AVERAGE(A5:B5)</f>
-        <v>#DIV/0!</v>
+        <v>0.156</v>
       </c>
       <c r="D5">
         <v>0.3</v>
       </c>
-      <c r="I5" t="e">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0.66</v>
+      </c>
+      <c r="G5">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="I5">
         <f t="shared" ref="I5:I10" si="1">AVERAGE(G5:H5)</f>
-        <v>#DIV/0!</v>
+        <v>0.6885</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" ref="J5:J9" si="2">(8.4311*I5)-1.0194</f>
+        <v>4.7854123500000005</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="e">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.183</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.188</v>
+      </c>
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="9">
+        <v>0.1855</v>
+      </c>
+      <c r="D6" s="6">
         <v>0.6</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="I6" t="e">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.622</v>
+      </c>
+      <c r="H6">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.61749999999999994</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="2"/>
+        <v>4.1868042499999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="e">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.27649999999999997</v>
       </c>
       <c r="D7">
         <v>1.25</v>
       </c>
-      <c r="I7" t="e">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>0.44</v>
+      </c>
+      <c r="G7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="2"/>
+        <v>2.54273975</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="e">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.435</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D8">
         <v>2.5</v>
       </c>
-      <c r="I8" t="e">
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.48049999999999998</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="2"/>
+        <v>3.0317435499999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="C9" s="2" t="e">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="C9" s="1">
         <f>AVERAGE(A9:B9)</f>
-        <v>#DIV/0!</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="I9" t="e">
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.438</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.4345</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="2"/>
+        <v>2.6439129500000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="I10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="33" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>4.5788504000000003</v>
+      </c>
+      <c r="E34" s="10">
+        <f>25/D34</f>
+        <v>5.4598857390055802</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" ref="F34:F37" si="3">10-E34</f>
+        <v>4.5401142609944198</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>4.7854123500000005</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" ref="E35:E39" si="4">25/D35</f>
+        <v>5.2242101978944397</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="3"/>
+        <v>4.7757898021055603</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>4.1868042499999998</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="4"/>
+        <v>5.9711413544113032</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="3"/>
+        <v>4.0288586455886968</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>2.54273975</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="4"/>
+        <v>9.8319145716741172</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="3"/>
+        <v>0.1680854283258828</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>3.0317435499999998</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="4"/>
+        <v>8.2460800485581967</v>
+      </c>
+      <c r="F38" s="10">
+        <f>10-E38</f>
+        <v>1.7539199514418033</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>2.6439129500000003</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="4"/>
+        <v>9.4556819656259847</v>
+      </c>
+      <c r="F39" s="10">
+        <f>10-E39</f>
+        <v>0.54431803437401527</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1589,6 +1942,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CIP 4 recuantificado</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>